--- a/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.65132763765028</v>
+        <v>89.59322482790336</v>
       </c>
       <c r="D2" t="n">
-        <v>3.782082854177876</v>
+        <v>3.431138738641805</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.24516329301207</v>
+        <v>88.32500655311617</v>
       </c>
       <c r="D3" t="n">
-        <v>2.782564094815318</v>
+        <v>4.056361985692405</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.84651554411749</v>
+        <v>88.01227834315924</v>
       </c>
       <c r="D4" t="n">
-        <v>3.239431201478912</v>
+        <v>3.042077338141801</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.40582958511706</v>
+        <v>86.60622886801254</v>
       </c>
       <c r="D5" t="n">
-        <v>3.374306644068855</v>
+        <v>3.954335925189303</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.32860652392915</v>
+        <v>85.91419899391509</v>
       </c>
       <c r="D6" t="n">
-        <v>3.752930961008807</v>
+        <v>3.588886948253113</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.13349189742166</v>
+        <v>84.60761183187357</v>
       </c>
       <c r="D7" t="n">
-        <v>3.898508759751513</v>
+        <v>4.198024272876461</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.87651238133856</v>
+        <v>83.54171922586106</v>
       </c>
       <c r="D8" t="n">
-        <v>3.485616536961427</v>
+        <v>3.666929367693029</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.07104673276928</v>
+        <v>82.48852327663708</v>
       </c>
       <c r="D9" t="n">
-        <v>4.705758441515986</v>
+        <v>4.02956815269769</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.31210762553577</v>
+        <v>81.73570599689002</v>
       </c>
       <c r="D10" t="n">
-        <v>4.126651381626083</v>
+        <v>3.913793860274414</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.37387463146833</v>
+        <v>80.80767219964851</v>
       </c>
       <c r="D11" t="n">
-        <v>4.112399486879344</v>
+        <v>3.754603184814118</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.71092685223871</v>
+        <v>79.83546913934839</v>
       </c>
       <c r="D12" t="n">
-        <v>3.467066958993924</v>
+        <v>3.606248623079408</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.44193572417333</v>
+        <v>78.95358437216149</v>
       </c>
       <c r="D13" t="n">
-        <v>4.246053896243453</v>
+        <v>3.944267118365714</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.32286116570128</v>
+        <v>77.53481115136157</v>
       </c>
       <c r="D14" t="n">
-        <v>3.767171423942772</v>
+        <v>4.132676301171029</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.86455912665009</v>
+        <v>76.42727807593369</v>
       </c>
       <c r="D15" t="n">
-        <v>4.447991981765188</v>
+        <v>3.920047457770979</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.64284535165918</v>
+        <v>76.04833160621216</v>
       </c>
       <c r="D16" t="n">
-        <v>4.509980448564901</v>
+        <v>4.486108229344389</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.61771775256156</v>
+        <v>74.21175983278683</v>
       </c>
       <c r="D17" t="n">
-        <v>4.400018511497583</v>
+        <v>4.157112723186993</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.1415698017622</v>
+        <v>73.01835745093675</v>
       </c>
       <c r="D18" t="n">
-        <v>4.349709228024762</v>
+        <v>5.257752190187647</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.47362527038231</v>
+        <v>72.48650825266952</v>
       </c>
       <c r="D19" t="n">
-        <v>4.379231533453315</v>
+        <v>3.953086858409671</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.24786671922487</v>
+        <v>72.05880186636759</v>
       </c>
       <c r="D20" t="n">
-        <v>3.952722973871114</v>
+        <v>4.525126538354263</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.73919725158656</v>
+        <v>70.0067237749455</v>
       </c>
       <c r="D21" t="n">
-        <v>4.190545738607089</v>
+        <v>4.316788716023444</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.69701102904325</v>
+        <v>69.41991274267598</v>
       </c>
       <c r="D22" t="n">
-        <v>4.41941895562428</v>
+        <v>4.380334698153139</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.34742227702877</v>
+        <v>68.5149171639126</v>
       </c>
       <c r="D23" t="n">
-        <v>4.666729567614375</v>
+        <v>5.136989746672853</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.6679850623532</v>
+        <v>67.63412755650241</v>
       </c>
       <c r="D24" t="n">
-        <v>4.393662305277807</v>
+        <v>4.317045106307833</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.89846610144535</v>
+        <v>65.79632888750476</v>
       </c>
       <c r="D25" t="n">
-        <v>4.326213890534621</v>
+        <v>5.112114726794977</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.01126321749639</v>
+        <v>65.74813038616908</v>
       </c>
       <c r="D26" t="n">
-        <v>4.991263097044695</v>
+        <v>5.17250475640491</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.4039281086619</v>
+        <v>64.18851781351131</v>
       </c>
       <c r="D27" t="n">
-        <v>4.870910996482329</v>
+        <v>4.408695321486079</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.24019838186879</v>
+        <v>63.7435288666537</v>
       </c>
       <c r="D28" t="n">
-        <v>4.449135929991653</v>
+        <v>5.077331554415918</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.77877424300461</v>
+        <v>63.21950425302897</v>
       </c>
       <c r="D29" t="n">
-        <v>5.074451920015925</v>
+        <v>4.937265932632441</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.43709561178618</v>
+        <v>60.92382757482586</v>
       </c>
       <c r="D30" t="n">
-        <v>4.995788976008847</v>
+        <v>4.775927590998693</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.15350931734728</v>
+        <v>59.56148036148595</v>
       </c>
       <c r="D31" t="n">
-        <v>4.62908253968993</v>
+        <v>5.441549646030852</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.03658269770131</v>
+        <v>59.68979922723636</v>
       </c>
       <c r="D32" t="n">
-        <v>4.68691429661786</v>
+        <v>4.901038906743326</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.06575467556555</v>
+        <v>59.44861739149982</v>
       </c>
       <c r="D33" t="n">
-        <v>5.186114315951211</v>
+        <v>5.302574434128686</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.87937827272484</v>
+        <v>58.20948077094184</v>
       </c>
       <c r="D34" t="n">
-        <v>5.341820550739446</v>
+        <v>4.91237319213955</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.98442248988191</v>
+        <v>56.93252358315779</v>
       </c>
       <c r="D35" t="n">
-        <v>5.306508973067645</v>
+        <v>5.469848753537527</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.89477759553942</v>
+        <v>55.67906737481608</v>
       </c>
       <c r="D36" t="n">
-        <v>5.673039803826801</v>
+        <v>5.815858377898055</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.32806071203608</v>
+        <v>54.77013484822464</v>
       </c>
       <c r="D37" t="n">
-        <v>5.021169044325299</v>
+        <v>4.818944252521579</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.0059274202998</v>
+        <v>52.64536613960854</v>
       </c>
       <c r="D38" t="n">
-        <v>4.78720012389327</v>
+        <v>6.0994019660647</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.19708883551707</v>
+        <v>52.49959599672732</v>
       </c>
       <c r="D39" t="n">
-        <v>5.174039257939407</v>
+        <v>5.121638086382807</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.28932250445112</v>
+        <v>52.25396761326017</v>
       </c>
       <c r="D40" t="n">
-        <v>5.371815631654765</v>
+        <v>5.415359760161137</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.57957419749215</v>
+        <v>49.81147787148262</v>
       </c>
       <c r="D41" t="n">
-        <v>5.169792120966623</v>
+        <v>5.969344063508753</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.34453921377158</v>
+        <v>49.72824164258391</v>
       </c>
       <c r="D42" t="n">
-        <v>5.560909886784763</v>
+        <v>5.945650436360016</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.77026494071807</v>
+        <v>48.6558058123896</v>
       </c>
       <c r="D43" t="n">
-        <v>6.79629312162361</v>
+        <v>6.383305017944231</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.18494839207979</v>
+        <v>47.11687304371728</v>
       </c>
       <c r="D44" t="n">
-        <v>5.890997480688673</v>
+        <v>5.300349310940975</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.53840777493832</v>
+        <v>46.37745336373157</v>
       </c>
       <c r="D45" t="n">
-        <v>5.430635020513159</v>
+        <v>5.211346691509313</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.9542934799197</v>
+        <v>45.10733709835842</v>
       </c>
       <c r="D46" t="n">
-        <v>5.882574979295972</v>
+        <v>6.000331929449663</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.67655422722298</v>
+        <v>44.15999208779144</v>
       </c>
       <c r="D47" t="n">
-        <v>6.15314674749813</v>
+        <v>6.483557389239933</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.07897249570706</v>
+        <v>43.32621791608146</v>
       </c>
       <c r="D48" t="n">
-        <v>5.138749861136916</v>
+        <v>5.343813435604101</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.10653891629691</v>
+        <v>42.94804670642483</v>
       </c>
       <c r="D49" t="n">
-        <v>6.936621403708696</v>
+        <v>6.08761153338529</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.70894776944035</v>
+        <v>42.71862205082324</v>
       </c>
       <c r="D50" t="n">
-        <v>6.562629552797203</v>
+        <v>5.085012647373836</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.98492115093346</v>
+        <v>41.45783254772135</v>
       </c>
       <c r="D51" t="n">
-        <v>6.486043868070678</v>
+        <v>5.691365700943116</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.11304390951325</v>
+        <v>39.27321862553279</v>
       </c>
       <c r="D52" t="n">
-        <v>5.384415901458123</v>
+        <v>6.561616015614347</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.41164062499656</v>
+        <v>38.44016615812514</v>
       </c>
       <c r="D53" t="n">
-        <v>7.212531782366748</v>
+        <v>6.151753184975452</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.20044965294309</v>
+        <v>37.39393610002598</v>
       </c>
       <c r="D54" t="n">
-        <v>5.84815276515568</v>
+        <v>5.649735680144291</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.99383813136128</v>
+        <v>37.15299820325229</v>
       </c>
       <c r="D55" t="n">
-        <v>5.665226745647755</v>
+        <v>5.767772328951528</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.56981485226203</v>
+        <v>35.93942246440717</v>
       </c>
       <c r="D56" t="n">
-        <v>5.806968104713351</v>
+        <v>6.714515400115769</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.89480944153173</v>
+        <v>34.25235048095858</v>
       </c>
       <c r="D57" t="n">
-        <v>5.917360474943885</v>
+        <v>6.066440100836685</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.10102471283203</v>
+        <v>32.76881317679784</v>
       </c>
       <c r="D58" t="n">
-        <v>6.792925028311599</v>
+        <v>5.963045479814329</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.25268916974688</v>
+        <v>31.58777333835583</v>
       </c>
       <c r="D59" t="n">
-        <v>5.999893949227406</v>
+        <v>7.12272612044528</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.91246931133553</v>
+        <v>32.66353768800958</v>
       </c>
       <c r="D60" t="n">
-        <v>8.021751690078016</v>
+        <v>6.674486026119989</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.45987098359656</v>
+        <v>29.71852080427429</v>
       </c>
       <c r="D61" t="n">
-        <v>7.006722436291409</v>
+        <v>7.142909782876396</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.07245057352869</v>
+        <v>29.99960018703658</v>
       </c>
       <c r="D62" t="n">
-        <v>5.999058953752369</v>
+        <v>6.57600473053526</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.85806582428536</v>
+        <v>26.7650568716105</v>
       </c>
       <c r="D63" t="n">
-        <v>5.300804686235713</v>
+        <v>7.18215205015973</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.34388532535788</v>
+        <v>27.56380864925843</v>
       </c>
       <c r="D64" t="n">
-        <v>5.931883124810351</v>
+        <v>7.886410157493735</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.56698277180246</v>
+        <v>26.78502472240879</v>
       </c>
       <c r="D65" t="n">
-        <v>7.539572730172099</v>
+        <v>7.090154045027934</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.83624312346959</v>
+        <v>24.73179551970376</v>
       </c>
       <c r="D66" t="n">
-        <v>7.171051068404866</v>
+        <v>7.205211235492264</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.41601260179938</v>
+        <v>24.43122866774788</v>
       </c>
       <c r="D67" t="n">
-        <v>6.10940621331333</v>
+        <v>6.795137034266008</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.9489716735289</v>
+        <v>22.4198181335948</v>
       </c>
       <c r="D68" t="n">
-        <v>7.631708125527551</v>
+        <v>6.824431811420938</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.94320061114404</v>
+        <v>21.55763823154354</v>
       </c>
       <c r="D69" t="n">
-        <v>6.952109688662614</v>
+        <v>6.426415211961276</v>
       </c>
     </row>
   </sheetData>
